--- a/emagevision/gpu_emagevision.xlsx
+++ b/emagevision/gpu_emagevision.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>date_hour_of_Aug</t>
   </si>
@@ -720,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5018,6 +5018,1572 @@
         <v>0</v>
       </c>
     </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149">
+        <v>56</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>51</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150">
+        <v>54</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>39</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>40</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152">
+        <v>57</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>58</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153">
+        <v>55</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>52</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154">
+        <v>49</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155">
+        <v>41</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158">
+        <v>43</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159">
+        <v>35</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>25</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161">
+        <v>45</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162">
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>38</v>
+      </c>
+      <c r="B163">
+        <v>38</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>61</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165">
+        <v>47</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166">
+        <v>62</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167">
+        <v>53</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>98</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>97</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>96</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>74</v>
+      </c>
+      <c r="H171">
+        <v>97</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>98</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>78</v>
+      </c>
+      <c r="H173">
+        <v>97</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>77</v>
+      </c>
+      <c r="H174">
+        <v>98</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>50</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>80</v>
+      </c>
+      <c r="H175">
+        <v>96</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>51</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>80</v>
+      </c>
+      <c r="H176">
+        <v>97</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>79</v>
+      </c>
+      <c r="H177">
+        <v>97</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>49</v>
+      </c>
+      <c r="H178">
+        <v>97</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183">
+        <v>35</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>60</v>
+      </c>
+      <c r="B184">
+        <v>52</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>61</v>
+      </c>
+      <c r="B185">
+        <v>48</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186">
+        <v>22</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>29</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187">
+        <v>60</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188">
+        <v>53</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>65</v>
+      </c>
+      <c r="B189">
+        <v>61</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190">
+        <v>40</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>37</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>67</v>
+      </c>
+      <c r="B191">
+        <v>35</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>35</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192">
+        <v>35</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>33</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>27</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194">
+        <v>46</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>33</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>71</v>
+      </c>
+      <c r="B195">
+        <v>35</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>33</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196">
+        <v>54</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>45</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197">
+        <v>35</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>33</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198">
+        <v>43</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>45</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199">
+        <v>56</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>30</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>76</v>
+      </c>
+      <c r="B200">
+        <v>34</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>30</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>77</v>
+      </c>
+      <c r="B201">
+        <v>34</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>39</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>78</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>35</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
